--- a/documenti/PBacklog BookMeal.xlsx
+++ b/documenti/PBacklog BookMeal.xlsx
@@ -1,163 +1,285 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\Desktop\Università\05 - Ingegneria del software 2 (6)\PROGETTO\ingso2\documenti\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70831161-12CD-43F0-A682-6FDE4EEEAD12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Foglio1" sheetId="1" r:id="rId4"/>
+    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t xml:space="preserve">         Product backlog BookMeal Send Nodes</t>
-  </si>
-  <si>
-    <t>Task ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      Name </t>
-  </si>
-  <si>
-    <t>Estimate</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Importanza</t>
   </si>
   <si>
-    <t xml:space="preserve">Identificazione utilizzatore tramite nome utente. </t>
-  </si>
-  <si>
-    <t>Visualizzazione posti in mensa con differenziazione libero/occupato</t>
-  </si>
-  <si>
     <t>Prenotazione posti</t>
   </si>
   <si>
-    <t>Visualizzazione menù</t>
+    <t>BookMeal</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Stima</t>
+  </si>
+  <si>
+    <t>Descrizione</t>
+  </si>
+  <si>
+    <t>Gestione utenti</t>
+  </si>
+  <si>
+    <t>L'utente effettua il login tramite il nome utente registrato al sistema</t>
+  </si>
+  <si>
+    <t>Gestione posti in mensa con differenziazione libero/occupato</t>
+  </si>
+  <si>
+    <t>L’utente vede la lista dei posti e se tali posti sono liberi o occupati</t>
+  </si>
+  <si>
+    <t>L’utente può prenotare un posto in mensa tra i posti liberi.</t>
+  </si>
+  <si>
+    <t>Gestione menù</t>
+  </si>
+  <si>
+    <t>L’utente può visualizzare il menù del giorno.</t>
+  </si>
+  <si>
+    <t>Gestione recensioni</t>
+  </si>
+  <si>
+    <t>L'utente può lasciare recensioni sul pasto del giorno</t>
+  </si>
+  <si>
+    <t>Bot Telegram</t>
+  </si>
+  <si>
+    <t>L’utente può visualizzare e prenotare i posti anche tramite un bot Telegram</t>
+  </si>
+  <si>
+    <t>Visualizzazione webcam mense</t>
+  </si>
+  <si>
+    <t>L'utente può visualizzare la webcam in tempo reale</t>
+  </si>
+  <si>
+    <t>Visualizzazione ingredienti cibo</t>
+  </si>
+  <si>
+    <t>L'utente può visualizzare la lista degli ingredienti del pasto del giorno per eventuali intolleranze</t>
+  </si>
+  <si>
+    <t>Chat di gruppo per prenotazioni collettive</t>
+  </si>
+  <si>
+    <t>L'utente può avviare chat di gruppo con amici per organizzarsi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <color theme="1"/>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
-    <border/>
+  <borders count="7">
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
-      <top style="thin">
+      <left/>
+      <right/>
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
-      <right style="thin">
+      <left/>
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -347,122 +469,319 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="5" max="5" width="11.43"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4">
-      <c r="E4" s="1" t="s">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="E5" s="2" t="s">
+      <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="B3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="5">
+        <v>15</v>
+      </c>
+      <c r="G3" s="5">
+        <v>6</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="11"/>
+    </row>
+    <row r="4" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="B4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="5">
+        <v>65</v>
+      </c>
+      <c r="G4" s="5">
+        <v>7</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="B5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="5">
+        <v>90</v>
+      </c>
+      <c r="G5" s="5">
+        <v>10</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="E6" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="B6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="5">
+        <v>25</v>
+      </c>
+      <c r="G6" s="5">
+        <v>7</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="K6" s="4">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="E7" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="B7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="5">
+        <v>25</v>
+      </c>
+      <c r="G7" s="5">
+        <v>8</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="4">
-        <v>40.0</v>
-      </c>
-      <c r="K7" s="4">
-        <v>65.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="E8" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="B8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="5">
+        <v>30</v>
+      </c>
+      <c r="G8" s="5">
+        <v>6</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="4">
-        <v>30.0</v>
-      </c>
-      <c r="K8" s="4">
-        <v>90.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="E9" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="B9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="5">
+        <v>20</v>
+      </c>
+      <c r="G9" s="5">
+        <v>6</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="4">
-        <v>25.0</v>
-      </c>
-      <c r="K9" s="4">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="E10" s="8"/>
+      <c r="B10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="5">
+        <v>40</v>
+      </c>
+      <c r="G10" s="5">
+        <v>5</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="5">
+        <v>20</v>
+      </c>
+      <c r="G11" s="5">
+        <v>8</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="E5:F5"/>
+  <mergeCells count="21">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="H5:M5"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>